--- a/Plantillas/plantilla_clientes.xlsx
+++ b/Plantillas/plantilla_clientes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sctock_camu\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BF2B08-2EE2-4CF3-B6CF-BC131BD2B969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04191AC4-7C2F-4210-9AED-A77A69A8E927}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>direccion</t>
   </si>
@@ -37,10 +37,19 @@
     <t>ruc</t>
   </si>
   <si>
-    <t>Kassandra flores Tuanama</t>
+    <t>SELVA INDUSTRIAL S.A.</t>
   </si>
   <si>
-    <t>Dhayro Kong Torres</t>
+    <t>JR. VICTOR ANDRES BELAUNDE NRO. 801A PROV. CONST. DEL CALLAO</t>
+  </si>
+  <si>
+    <t>AGRONEGOCIOS LA GRAMA</t>
+  </si>
+  <si>
+    <t>Av. General Trinidad Moran Nro. 1111 (a Una Cuadra de la Av. Dos de Mayo)</t>
+  </si>
+  <si>
+    <t>(01) 628-6580 / 993 502 262</t>
   </si>
 </sst>
 </file>
@@ -419,7 +428,7 @@
   <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,21 +458,27 @@
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>10482393476</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>20504524176</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>10700064838</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+        <v>20513328495</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
